--- a/全局错误码.xlsx
+++ b/全局错误码.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\201710\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitRepos\WeixinSDK\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="428">
   <si>
     <t>系统繁忙</t>
   </si>
@@ -1302,15 +1302,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>服务器暂不可用，建议稍候重试。建议重试次数不超过3次。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>请求成功</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>接口调用成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnCode.cs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>服务器暂不可用，建议稍候重试。建议重试次数不超过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="Tahoma"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF808080"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>次。</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1318,7 +1350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1389,6 +1421,20 @@
       <color rgb="FF808080"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Tahoma"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1519,7 +1565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1537,39 +1583,49 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1885,6 +1941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8058A23-6B14-4756-A169-02582D2A4DD9}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2907,6 +2964,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79DC740-CDB7-4BAA-9182-69F5969BCF3D}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5533,1843 +5591,2294 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054372C4-6544-4C11-B357-AD279DD436F9}">
-  <dimension ref="A1:D91"/>
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.75" style="19" customWidth="1"/>
+    <col min="3" max="3" width="40.25" style="19" customWidth="1"/>
+    <col min="4" max="4" width="74.375" customWidth="1"/>
+    <col min="5" max="5" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="11" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="D1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>-1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="D2" t="str">
+      <c r="D2" s="21" t="str">
         <f>_xlfn.CONCAT("/// &lt;summary&gt;
 /// ",C2,"
 /// 说明：",B2,"
 /// &lt;/summary&gt;
-",C2," = ",A2, ",
+[Description(""",C2,""")]
+",格式化变量名(C2)," = ",A2, ",
 ")</f>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 系统繁忙
 /// 说明：服务器暂不可用，建议稍候重试。建议重试次数不超过3次。
 /// &lt;/summary&gt;
+[Description("系统繁忙")]
 系统繁忙 = -1,
 </v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="D3" t="str">
+      <c r="C3" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="21" t="str">
         <f t="shared" ref="D3:D66" si="0">_xlfn.CONCAT("/// &lt;summary&gt;
 /// ",C3,"
 /// 说明：",B3,"
 /// &lt;/summary&gt;
-",C3," = ",A3, ",
+[Description(""",C3,""")]
+",格式化变量名(C3)," = ",A3, ",
 ")</f>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请求成功
 /// 说明：接口调用成功
 /// &lt;/summary&gt;
+[Description("请求成功")]
 请求成功 = 0,
 </v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>400</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="14" t="s">
         <v>253</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="D4" t="str">
+      <c r="D4" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请求不合法，包体格式错误
 /// 说明：HTTP_BAD_REQUEST
 /// &lt;/summary&gt;
-请求不合法，包体格式错误 = 400,
-</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
+[Description("请求不合法，包体格式错误")]
+请求不合法_包体格式错误 = 400,
+</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.CONCAT("{""",B4,""",""", C4, """},")</f>
+        <v>{"HTTP_BAD_REQUEST","请求不合法，包体格式错误"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>401</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="D5" t="str">
+      <c r="D5" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 权限验证失败
 /// 说明：HTTP_UNAUTHORIZED
 /// &lt;/summary&gt;
+[Description("权限验证失败")]
 权限验证失败 = 401,
 </v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="16">
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E68" si="1">_xlfn.CONCAT("{""",B5,""",""", C5, """},")</f>
+        <v>{"HTTP_UNAUTHORIZED","权限验证失败"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>403</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D6" t="str">
+      <c r="D6" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 鉴权信息不合法，禁止访问
 /// 说明：HTTP_FORBIDDEN
 /// &lt;/summary&gt;
-鉴权信息不合法，禁止访问 = 403,
-</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14">
+[Description("鉴权信息不合法，禁止访问")]
+鉴权信息不合法_禁止访问 = 403,
+</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_FORBIDDEN","鉴权信息不合法，禁止访问"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>404</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="D7" t="str">
+      <c r="D7" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请求失败
 /// 说明：HTTP_NOTFOUND
 /// &lt;/summary&gt;
+[Description("请求失败")]
 请求失败 = 404,
 </v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
+      <c r="E7" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_NOTFOUND","请求失败"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="9">
         <v>411</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="17" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="D8" t="str">
+      <c r="D8" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请求没有指定ContentLength
 /// 说明：HTTP_REQ_NOLENGTH
 /// &lt;/summary&gt;
+[Description("请求没有指定ContentLength")]
 请求没有指定ContentLength = 411,
 </v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14">
+      <c r="E8" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_REQ_NOLENGTH","请求没有指定ContentLength"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8">
         <v>413</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="D9" t="str">
+      <c r="D9" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请求包体太大
 /// 说明：HTTP_REQUEST_LARGE
 /// &lt;/summary&gt;
+[Description("请求包体太大")]
 请求包体太大 = 413,
 </v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="16">
+      <c r="E9" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_REQUEST_LARGE","请求包体太大"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>423</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="D10" t="str">
+      <c r="D10" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请求的服务没有找到
 /// 说明：HTTP_SERVER_NOTFOUND
 /// &lt;/summary&gt;
+[Description("请求的服务没有找到")]
 请求的服务没有找到 = 423,
 </v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14">
+      <c r="E10" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_SERVER_NOTFOUND","请求的服务没有找到"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
         <v>424</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="15" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="D11" t="str">
+      <c r="D11" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请求的方法没有找到
 /// 说明：HTTP_METHOD_NOTFOUND
 /// &lt;/summary&gt;
+[Description("请求的方法没有找到")]
 请求的方法没有找到 = 424,
 </v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16">
+      <c r="E11" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_METHOD_NOTFOUND","请求的方法没有找到"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9">
         <v>425</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="D12" t="str">
+      <c r="D12" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请求包体太大
 /// 说明：HTTP_REQUEST_OVERFLOW
 /// &lt;/summary&gt;
+[Description("请求包体太大")]
 请求包体太大 = 425,
 </v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14">
+      <c r="E12" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_REQUEST_OVERFLOW","请求包体太大"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
         <v>429</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="D13" t="str">
+      <c r="D13" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请求超过频率限制
 /// 说明：HTTP_TOO_MANY_REQUEST
 /// &lt;/summary&gt;
+[Description("请求超过频率限制")]
 请求超过频率限制 = 429,
 </v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="16">
+      <c r="E13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_TOO_MANY_REQUEST","请求超过频率限制"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9">
         <v>500</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="D14" t="str">
+      <c r="D14" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 服务内部错误
 /// 说明：HTTP_INTERNAL_SERVER_ERROR
 /// &lt;/summary&gt;
+[Description("服务内部错误")]
 服务内部错误 = 500,
 </v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
+      <c r="E14" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_INTERNAL_SERVER_ERROR","服务内部错误"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8">
         <v>502</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="D15" t="str">
+      <c r="D15" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 网关错误，计算后台服务不可用
 /// 说明：HTTP_BAD_GETWAT
 /// &lt;/summary&gt;
-网关错误，计算后台服务不可用 = 502,
-</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+[Description("网关错误，计算后台服务不可用")]
+网关错误_计算后台服务不可用 = 502,
+</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_BAD_GETWAT","网关错误，计算后台服务不可用"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
         <v>503</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="17" t="s">
         <v>276</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>277</v>
       </c>
-      <c r="D16" t="str">
+      <c r="D16" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 服务不可用
 /// 说明：HTTP_SERVICE_UNAVAILABLE
 /// &lt;/summary&gt;
+[Description("服务不可用")]
 服务不可用 = 503,
 </v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14">
+      <c r="E16" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_SERVICE_UNAVAILABLE","服务不可用"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
         <v>504</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="D17" t="str">
+      <c r="D17" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 后端服务超时
 /// 说明：HTTP_GATEWAY_TIME_OUT
 /// &lt;/summary&gt;
+[Description("后端服务超时")]
 后端服务超时 = 504,
 </v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="E17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"HTTP_GATEWAY_TIME_OUT","后端服务超时"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
         <v>-1100</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="14" t="s">
         <v>280</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="D18" t="str">
+      <c r="D18" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 相似度错误
 /// 说明：SDK_DISTANCE_ERROR
 /// &lt;/summary&gt;
+[Description("相似度错误")]
 相似度错误 = -1100,
 </v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14">
+      <c r="E18" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_DISTANCE_ERROR","相似度错误"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8">
         <v>-1101</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="D19" t="str">
+      <c r="D19" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 人脸检测失败
 /// 说明：SDK_IMAGE_FACEDETECT_FAILED
 /// &lt;/summary&gt;
+[Description("人脸检测失败")]
 人脸检测失败 = -1101,
 </v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="16">
+      <c r="E19" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_IMAGE_FACEDETECT_FAILED","人脸检测失败"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <v>-1102</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="18" t="s">
         <v>285</v>
       </c>
-      <c r="D20" t="str">
+      <c r="D20" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 图片解码失败
 /// 说明：SDK_IMAGE_DECODE_FAILED
 /// &lt;/summary&gt;
+[Description("图片解码失败")]
 图片解码失败 = -1102,
 </v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14">
+      <c r="E20" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_IMAGE_DECODE_FAILED","图片解码失败"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>-1103</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D21" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 特征处理失败
 /// 说明：SDK_FEAT_PROCESSFAILED
 /// &lt;/summary&gt;
+[Description("特征处理失败")]
 特征处理失败 = -1103,
 </v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="16">
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_FEAT_PROCESSFAILED","特征处理失败"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
         <v>-1104</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 提取轮廓错误
 /// 说明：SDK_FACE_SHAPE_FAILED
 /// &lt;/summary&gt;
+[Description("提取轮廓错误")]
 提取轮廓错误 = -1104,
 </v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14">
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_FACE_SHAPE_FAILED","提取轮廓错误"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>-1105</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 提取性别错误
 /// 说明：SDK_FACE_GENDER_FAILED
 /// &lt;/summary&gt;
+[Description("提取性别错误")]
 提取性别错误 = -1105,
 </v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16">
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_FACE_GENDER_FAILED","提取性别错误"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>-1106</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="17" t="s">
         <v>292</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="D24" t="str">
+      <c r="D24" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 提取表情错误
 /// 说明：SDK_FACE_EXPRESSION_FAILED
 /// &lt;/summary&gt;
+[Description("提取表情错误")]
 提取表情错误 = -1106,
 </v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14">
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_FACE_EXPRESSION_FAILED","提取表情错误"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8">
         <v>-1107</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D25" t="str">
+      <c r="D25" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 提取年龄错误
 /// 说明：SDK_FACE_AGE_FAILED
 /// &lt;/summary&gt;
+[Description("提取年龄错误")]
 提取年龄错误 = -1107,
 </v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="16">
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_FACE_AGE_FAILED","提取年龄错误"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9">
         <v>-1108</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="D26" t="str">
+      <c r="D26" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 提取姿态错误
 /// 说明：SDK_FACE_POSE_FAILED
 /// &lt;/summary&gt;
+[Description("提取姿态错误")]
 提取姿态错误 = -1108,
 </v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14">
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_FACE_POSE_FAILED","提取姿态错误"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8">
         <v>-1109</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="D27" t="str">
+      <c r="D27" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 提取眼镜错误
 /// 说明：SDK_FACE_GLASS_FAILED
 /// &lt;/summary&gt;
+[Description("提取眼镜错误")]
 提取眼镜错误 = -1109,
 </v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="16">
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_FACE_GLASS_FAILED","提取眼镜错误"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9">
         <v>-1110</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="17" t="s">
         <v>300</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="D28" t="str">
+      <c r="D28" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 提取魅力值错误
 /// 说明：SDK_FACE_BEAUTY_FAILED
 /// &lt;/summary&gt;
+[Description("提取魅力值错误")]
 提取魅力值错误 = -1110,
 </v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14">
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v>{"SDK_FACE_BEAUTY_FAILED","提取魅力值错误"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="8">
         <v>-1001</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="D29" t="str">
+      <c r="D29" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 语音合成失败
 /// 说明：TTS_PROCESS_FAILED
 /// &lt;/summary&gt;
+[Description("语音合成失败")]
 语音合成失败 = -1001,
 </v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v>{"TTS_PROCESS_FAILED","语音合成失败"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
         <v>-1200</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="14" t="s">
         <v>304</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D30" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 存储错误
 /// 说明：STORAGE_ERROR
 /// &lt;/summary&gt;
+[Description("存储错误")]
 存储错误 = -1200,
 </v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14">
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v>{"STORAGE_ERROR","存储错误"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8">
         <v>-1201</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="D31" t="str">
+      <c r="D31" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 缓存错误
 /// 说明：CACHE_ERROR
 /// &lt;/summary&gt;
+[Description("缓存错误")]
 缓存错误 = -1201,
 </v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v>{"CACHE_ERROR","缓存错误"},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>-1300</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="14" t="s">
         <v>308</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D32" t="str">
+      <c r="D32" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 图片为空
 /// 说明：ERROR_IMAGE_EMPTY
 /// &lt;/summary&gt;
+[Description("图片为空")]
 图片为空 = -1300,
 </v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14">
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_IMAGE_EMPTY","图片为空"},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8">
         <v>-1301</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="D33" t="str">
+      <c r="D33" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 参数为空
 /// 说明：ERROR_PARAMETER_EMPTY
 /// &lt;/summary&gt;
+[Description("参数为空")]
 参数为空 = -1301,
 </v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="16">
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_PARAMETER_EMPTY","参数为空"},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="9">
         <v>-1302</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="17" t="s">
         <v>311</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="D34" t="str">
+      <c r="D34" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 个体已存在
 /// 说明：ERROR_PERSON_EXISTED
 /// &lt;/summary&gt;
+[Description("个体已存在")]
 个体已存在 = -1302,
 </v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14">
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_PERSON_EXISTED","个体已存在"},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="8">
         <v>-1303</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="D35" t="str">
+      <c r="D35" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 个体不存在
 /// 说明：ERROR_PERSON_NOT_EXISTED
 /// &lt;/summary&gt;
+[Description("个体不存在")]
 个体不存在 = -1303,
 </v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="16">
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_PERSON_NOT_EXISTED","个体不存在"},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="9">
         <v>-1304</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="17" t="s">
         <v>315</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="D36" t="str">
+      <c r="D36" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 参数过长
 /// 说明：ERROR_PARAMETER_TOO_LONG
 /// &lt;/summary&gt;
+[Description("参数过长")]
 参数过长 = -1304,
 </v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="14">
+      <c r="E36" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_PARAMETER_TOO_LONG","参数过长"},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8">
         <v>-1305</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="D37" t="str">
+      <c r="D37" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 人脸不存在
 /// 说明：ERROR_FACE_NOT_EXISTED
 /// &lt;/summary&gt;
+[Description("人脸不存在")]
 人脸不存在 = -1305,
 </v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16">
+      <c r="E37" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_FACE_NOT_EXISTED","人脸不存在"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="9">
         <v>-1306</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="17" t="s">
         <v>319</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="D38" t="str">
+      <c r="D38" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 组不存在
 /// 说明：ERROR_GROUP_NOT_EXISTED
 /// &lt;/summary&gt;
+[Description("组不存在")]
 组不存在 = -1306,
 </v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="14">
+      <c r="E38" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_GROUP_NOT_EXISTED","组不存在"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8">
         <v>-1307</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="D39" t="str">
+      <c r="D39" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 组列表不存在
 /// 说明：ERROR_GROUPLIST_NOT_EXISTED
 /// &lt;/summary&gt;
+[Description("组列表不存在")]
 组列表不存在 = -1307,
 </v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="E39" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_GROUPLIST_NOT_EXISTED","组列表不存在"},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="9">
         <v>-1308</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="17" t="s">
         <v>323</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="18" t="s">
         <v>324</v>
       </c>
-      <c r="D40" t="str">
+      <c r="D40" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// url图片下载失败
 /// 说明：ERROR_DOWNLOAD_IMAGE_FAILED
 /// &lt;/summary&gt;
+[Description("url图片下载失败")]
 url图片下载失败 = -1308,
 </v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="14">
+      <c r="E40" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_DOWNLOAD_IMAGE_FAILED","url图片下载失败"},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8">
         <v>-1309</v>
       </c>
-      <c r="B41" s="10" t="s">
+      <c r="B41" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="D41" t="str">
+      <c r="D41" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 人脸个数超过限制
 /// 说明：ERROR_FACE_NUM_EXCEED
 /// &lt;/summary&gt;
+[Description("人脸个数超过限制")]
 人脸个数超过限制 = -1309,
 </v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="E41" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_FACE_NUM_EXCEED","人脸个数超过限制"},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="9">
         <v>-1310</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="17" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="18" t="s">
         <v>328</v>
       </c>
-      <c r="D42" t="str">
+      <c r="D42" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 个体个数超过限制
 /// 说明：ERROR_PERSON_NUM_EXCEED
 /// &lt;/summary&gt;
+[Description("个体个数超过限制")]
 个体个数超过限制 = -1310,
 </v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="14">
+      <c r="E42" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_PERSON_NUM_EXCEED","个体个数超过限制"},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8">
         <v>-1311</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="D43" t="str">
+      <c r="D43" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 组个数超过限制
 /// 说明：ERROR_GROUP_NUM_EXCEED
 /// &lt;/summary&gt;
+[Description("组个数超过限制")]
 组个数超过限制 = -1311,
 </v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="E43" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_GROUP_NUM_EXCEED","组个数超过限制"},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="9">
         <v>-1312</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="17" t="s">
         <v>331</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="18" t="s">
         <v>332</v>
       </c>
-      <c r="D44" t="str">
+      <c r="D44" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 对个体添加了几乎相同的人脸
 /// 说明：ERROR_SAME_FACE_ADDED
 /// &lt;/summary&gt;
+[Description("对个体添加了几乎相同的人脸")]
 对个体添加了几乎相同的人脸 = -1312,
 </v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="14">
+      <c r="E44" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_SAME_FACE_ADDED","对个体添加了几乎相同的人脸"},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8">
         <v>-1313</v>
       </c>
-      <c r="B45" s="10" t="s">
+      <c r="B45" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="D45" t="str">
+      <c r="D45" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 参数不合法（特殊字符比如空格、斜线、tab、换行符）
 /// 说明：ERROR_PARAMETER_INVALID
 /// &lt;/summary&gt;
-参数不合法（特殊字符比如空格、斜线、tab、换行符） = -1313,
-</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+[Description("参数不合法（特殊字符比如空格、斜线、tab、换行符）")]
+参数不合法_特殊字符比如空格_斜线_tab_换行符 = -1313,
+</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_PARAMETER_INVALID","参数不合法（特殊字符比如空格、斜线、tab、换行符）"},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="9">
         <v>-1400</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="18" t="s">
         <v>336</v>
       </c>
-      <c r="D46" t="str">
+      <c r="D46" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 无效的图片格式
 /// 说明：ERROR_IMAGE_FORMAT_INVALID
 /// &lt;/summary&gt;
+[Description("无效的图片格式")]
 无效的图片格式 = -1400,
 </v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="14">
+      <c r="E46" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_IMAGE_FORMAT_INVALID","无效的图片格式"},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8">
         <v>-1401</v>
       </c>
-      <c r="B47" s="10" t="s">
+      <c r="B47" s="15" t="s">
         <v>337</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="D47" t="str">
+      <c r="D47" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 图片模糊度检测失败
 /// 说明：ERROR_IMAGE_FUZZY_DETECT_FAILED
 /// &lt;/summary&gt;
+[Description("图片模糊度检测失败")]
 图片模糊度检测失败 = -1401,
 </v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="E47" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_IMAGE_FUZZY_DETECT_FAILED","图片模糊度检测失败"},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9">
         <v>-1402</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="D48" t="str">
+      <c r="D48" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 美食图片检测失败
 /// 说明：ERROR_IMAGE_FOOD_DETECT_FAILED
 /// &lt;/summary&gt;
+[Description("美食图片检测失败")]
 美食图片检测失败 = -1402,
 </v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="14">
+      <c r="E48" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_IMAGE_FOOD_DETECT_FAILED","美食图片检测失败"},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="8">
         <v>-1403</v>
       </c>
-      <c r="B49" s="10" t="s">
+      <c r="B49" s="15" t="s">
         <v>341</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="D49" t="str">
+      <c r="D49" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 图片下载失败
 /// 说明：ERROR_IMAGE_DOWNLOAD_FAILED
 /// &lt;/summary&gt;
+[Description("图片下载失败")]
 图片下载失败 = -1403,
 </v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+      <c r="E49" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_IMAGE_DOWNLOAD_FAILED","图片下载失败"},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9">
         <v>-1404</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="18" t="s">
         <v>344</v>
       </c>
-      <c r="D50" t="str">
+      <c r="D50" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 算法模型调用错误
 /// 说明：ERROR_IMAGE_CLASSIFY_FAILED
 /// &lt;/summary&gt;
+[Description("算法模型调用错误")]
 算法模型调用错误 = -1404,
 </v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="14">
+      <c r="E50" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_IMAGE_CLASSIFY_FAILED","算法模型调用错误"},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8">
         <v>-1405</v>
       </c>
-      <c r="B51" s="10" t="s">
+      <c r="B51" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="D51" t="str">
+      <c r="D51" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 提取图像指纹失败
 /// 说明：ERROR_IMAGE_FINGERPRINT_FAILED
 /// &lt;/summary&gt;
+[Description("提取图像指纹失败")]
 提取图像指纹失败 = -1405,
 </v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="16">
+      <c r="E51" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_IMAGE_FINGERPRINT_FAILED","提取图像指纹失败"},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="9">
         <v>-1406</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="17" t="s">
         <v>347</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="18" t="s">
         <v>348</v>
       </c>
-      <c r="D52" t="str">
+      <c r="D52" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 图像特征比对失败
 /// 说明：ERROR_IMAGE_COMPARE_FAILED
 /// &lt;/summary&gt;
+[Description("图像特征比对失败")]
 图像特征比对失败 = -1406,
 </v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="14">
+      <c r="E52" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_IMAGE_COMPARE_FAILED","图像特征比对失败"},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="8">
         <v>-1408</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C53" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="D53" t="str">
+      <c r="D53" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 图片超出下载限制
 /// 说明：ERROR_DOWNLOAD_IMAGE_SIZE_EXCEED
 /// &lt;/summary&gt;
+[Description("图片超出下载限制")]
 图片超出下载限制 = -1408,
 </v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="E53" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_DOWNLOAD_IMAGE_SIZE_EXCEED","图片超出下载限制"},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="9">
         <v>-1409</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="18" t="s">
         <v>352</v>
       </c>
-      <c r="D54" t="str">
+      <c r="D54" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 图片不满足检测要求
 /// 说明：ERROR_IMAGE_UNSATISFACTORY
 /// &lt;/summary&gt;
+[Description("图片不满足检测要求")]
 图片不满足检测要求 = -1409,
 </v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="14">
+      <c r="E54" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_IMAGE_UNSATISFACTORY","图片不满足检测要求"},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="8">
         <v>-1505</v>
       </c>
-      <c r="B55" s="10" t="s">
+      <c r="B55" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C55" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="D55" t="str">
+      <c r="D55" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 图像请求URL的格式错误
 /// 说明：ERROR_IVADLID_URL_FROMAT
 /// &lt;/summary&gt;
+[Description("图像请求URL的格式错误")]
 图像请求URL的格式错误 = -1505,
 </v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="E55" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_IVADLID_URL_FROMAT","图像请求URL的格式错误"},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="9">
         <v>-1506</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="17" t="s">
         <v>355</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="18" t="s">
         <v>356</v>
       </c>
-      <c r="D56" t="str">
+      <c r="D56" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 图像下载超时
 /// 说明：ERROR_DOWNLOAD_TIMEOUT
 /// &lt;/summary&gt;
+[Description("图像下载超时")]
 图像下载超时 = -1506,
 </v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="14">
+      <c r="E56" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_DOWNLOAD_TIMEOUT","图像下载超时"},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="8">
         <v>-1507</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="D57" t="str">
+      <c r="D57" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 无法连接图像下载服务器
 /// 说明：ERROR_CONNECT_DOWNLOAD_SERVER
 /// &lt;/summary&gt;
+[Description("无法连接图像下载服务器")]
 无法连接图像下载服务器 = -1507,
 </v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="E57" t="str">
+        <f t="shared" si="1"/>
+        <v>{"ERROR_CONNECT_DOWNLOAD_SERVER","无法连接图像下载服务器"},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="9">
         <v>-2000</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="17" t="s">
         <v>359</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="18" t="s">
         <v>360</v>
       </c>
-      <c r="D58" t="str">
+      <c r="D58" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 文本为空
 /// 说明：TEXT_EMPTY
 /// &lt;/summary&gt;
+[Description("文本为空")]
 文本为空 = -2000,
 </v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="14">
+      <c r="E58" t="str">
+        <f t="shared" si="1"/>
+        <v>{"TEXT_EMPTY","文本为空"},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="8">
         <v>-2001</v>
       </c>
-      <c r="B59" s="10" t="s">
+      <c r="B59" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="D59" t="str">
+      <c r="D59" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 文本过长
 /// 说明：TEXT_TOO_LONG
 /// &lt;/summary&gt;
+[Description("文本过长")]
 文本过长 = -2001,
 </v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+      <c r="E59" t="str">
+        <f t="shared" si="1"/>
+        <v>{"TEXT_TOO_LONG","文本过长"},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="9">
         <v>-5101</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="17" t="s">
         <v>363</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="D60" t="str">
+      <c r="D60" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// OCR照片为空
 /// 说明：OCR_BUF_EMPTY
 /// &lt;/summary&gt;
+[Description("OCR照片为空")]
 OCR照片为空 = -5101,
 </v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="14">
+      <c r="E60" t="str">
+        <f t="shared" si="1"/>
+        <v>{"OCR_BUF_EMPTY","OCR照片为空"},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="8">
         <v>-5103</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C61" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D61" t="str">
+      <c r="D61" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// OCR识别失败
 /// 说明：OCR_RECOG_FAILED
 /// &lt;/summary&gt;
+[Description("OCR识别失败")]
 OCR识别失败 = -5103,
 </v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+      <c r="E61" t="str">
+        <f t="shared" si="1"/>
+        <v>{"OCR_RECOG_FAILED","OCR识别失败"},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="9">
         <v>-5106</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="17" t="s">
         <v>367</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="D62" t="str">
+      <c r="D62" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 身份证边框不完整
 /// 说明：OCR_CORNER_INCOMPLETE
 /// &lt;/summary&gt;
+[Description("身份证边框不完整")]
 身份证边框不完整 = -5106,
 </v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="14">
+      <c r="E62" t="str">
+        <f t="shared" si="1"/>
+        <v>{"OCR_CORNER_INCOMPLETE","身份证边框不完整"},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="8">
         <v>-5107</v>
       </c>
-      <c r="B63" s="10" t="s">
+      <c r="B63" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C63" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="D63" t="str">
+      <c r="D63" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 输入图片不是身份证
 /// 说明：OCR_NOT_IDCARD
 /// &lt;/summary&gt;
+[Description("输入图片不是身份证")]
 输入图片不是身份证 = -5107,
 </v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+      <c r="E63" t="str">
+        <f t="shared" si="1"/>
+        <v>{"OCR_NOT_IDCARD","输入图片不是身份证"},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="9">
         <v>-5108</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="D64" t="str">
+      <c r="D64" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 身份证信息不合规范
 /// 说明：OCR_IDCARD_ILLEGAL
 /// &lt;/summary&gt;
+[Description("身份证信息不合规范")]
 身份证信息不合规范 = -5108,
 </v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="14">
+      <c r="E64" t="str">
+        <f t="shared" si="1"/>
+        <v>{"OCR_IDCARD_ILLEGAL","身份证信息不合规范"},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8">
         <v>-5109</v>
       </c>
-      <c r="B65" s="10" t="s">
+      <c r="B65" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="D65" t="str">
+      <c r="D65" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 照片模糊
 /// 说明：OCR_IMAGE_BLUR
 /// &lt;/summary&gt;
+[Description("照片模糊")]
 照片模糊 = -5109,
 </v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="16">
+      <c r="E65" t="str">
+        <f t="shared" si="1"/>
+        <v>{"OCR_IMAGE_BLUR","照片模糊"},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9">
         <v>-5201</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="17" t="s">
         <v>375</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="D66" t="str">
+      <c r="D66" s="21" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 名片无足够文本
 /// 说明：OCR_NOT_ENOUGH_TEXTLINES
 /// &lt;/summary&gt;
+[Description("名片无足够文本")]
 名片无足够文本 = -5201,
 </v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="14">
+      <c r="E66" t="str">
+        <f t="shared" si="1"/>
+        <v>{"OCR_NOT_ENOUGH_TEXTLINES","名片无足够文本"},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8">
         <v>-5202</v>
       </c>
-      <c r="B67" s="10" t="s">
+      <c r="B67" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C67" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="D67" t="str">
-        <f t="shared" ref="D67:D91" si="1">_xlfn.CONCAT("/// &lt;summary&gt;
+      <c r="D67" s="21" t="str">
+        <f t="shared" ref="D67:D91" si="2">_xlfn.CONCAT("/// &lt;summary&gt;
 /// ",C67,"
 /// 说明：",B67,"
 /// &lt;/summary&gt;
-",C67," = ",A67, ",
+[Description(""",C67,""")]
+",格式化变量名(C67)," = ",A67, ",
 ")</f>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 名片文本行倾斜角度太大
 /// 说明：OCR_TEXTLINES_SKEWED
 /// &lt;/summary&gt;
+[Description("名片文本行倾斜角度太大")]
 名片文本行倾斜角度太大 = -5202,
 </v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
+      <c r="E67" t="str">
+        <f t="shared" si="1"/>
+        <v>{"OCR_TEXTLINES_SKEWED","名片文本行倾斜角度太大"},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="9">
         <v>-5203</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="18" t="s">
         <v>380</v>
       </c>
-      <c r="D68" t="str">
-        <f t="shared" si="1"/>
+      <c r="D68" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 名片模糊
 /// 说明：OCR_TEXTLINES_FUZZY
 /// &lt;/summary&gt;
+[Description("名片模糊")]
 名片模糊 = -5203,
 </v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="14">
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>{"OCR_TEXTLINES_FUZZY","名片模糊"},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="8">
         <v>-5204</v>
       </c>
-      <c r="B69" s="10" t="s">
+      <c r="B69" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="D69" t="str">
-        <f t="shared" si="1"/>
+      <c r="D69" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 名片姓名识别失败
 /// 说明：OCR_UNRECOG_NAME
 /// &lt;/summary&gt;
+[Description("名片姓名识别失败")]
 名片姓名识别失败 = -5204,
 </v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
+      <c r="E69" t="str">
+        <f t="shared" ref="E69:E91" si="3">_xlfn.CONCAT("{""",B69,""",""", C69, """},")</f>
+        <v>{"OCR_UNRECOG_NAME","名片姓名识别失败"},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="9">
         <v>-5205</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="17" t="s">
         <v>383</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="18" t="s">
         <v>384</v>
       </c>
-      <c r="D70" t="str">
-        <f t="shared" si="1"/>
+      <c r="D70" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 名片电话识别失败
 /// 说明：OCR_UNRECOG_TEL
 /// &lt;/summary&gt;
+[Description("名片电话识别失败")]
 名片电话识别失败 = -5205,
 </v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="14">
+      <c r="E70" t="str">
+        <f t="shared" si="3"/>
+        <v>{"OCR_UNRECOG_TEL","名片电话识别失败"},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8">
         <v>-5206</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C71" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="D71" t="str">
-        <f t="shared" si="1"/>
+      <c r="D71" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 图像为非名片图像
 /// 说明：OCR_NOT_A_NAMECARD
 /// &lt;/summary&gt;
+[Description("图像为非名片图像")]
 图像为非名片图像 = -5206,
 </v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+      <c r="E71" t="str">
+        <f t="shared" si="3"/>
+        <v>{"OCR_NOT_A_NAMECARD","图像为非名片图像"},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="9">
         <v>-5207</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="17" t="s">
         <v>387</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="D72" t="str">
-        <f t="shared" si="1"/>
+      <c r="D72" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 检测或者识别失败
 /// 说明：DETECT_AND_RECONG_FAILED
 /// &lt;/summary&gt;
+[Description("检测或者识别失败")]
 检测或者识别失败 = -5207,
 </v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="14">
+      <c r="E72" t="str">
+        <f t="shared" si="3"/>
+        <v>{"DETECT_AND_RECONG_FAILED","检测或者识别失败"},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8">
         <v>-5208</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="D73" t="str">
-        <f t="shared" si="1"/>
+      <c r="D73" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 服务内部错误
 /// 说明：OCR_SERVER_INTERN_ERROR
 /// &lt;/summary&gt;
+[Description("服务内部错误")]
 服务内部错误 = -5208,
 </v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="16">
+      <c r="E73" t="str">
+        <f t="shared" si="3"/>
+        <v>{"OCR_SERVER_INTERN_ERROR","服务内部错误"},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9">
         <v>-7001</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="17" t="s">
         <v>390</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="18" t="s">
         <v>391</v>
       </c>
-      <c r="D74" t="str">
-        <f t="shared" si="1"/>
+      <c r="D74" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 未检测到身份证，请对准边框(请避免拍摄时倾角和旋转角过大、摄像头)
 /// 说明：NOT_CARD
 /// &lt;/summary&gt;
-未检测到身份证，请对准边框(请避免拍摄时倾角和旋转角过大、摄像头) = -7001,
-</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="14">
+[Description("未检测到身份证，请对准边框(请避免拍摄时倾角和旋转角过大、摄像头)")]
+未检测到身份证_请对准边框_请避免拍摄时倾角和旋转角过大_摄像头 = -7001,
+</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="3"/>
+        <v>{"NOT_CARD","未检测到身份证，请对准边框(请避免拍摄时倾角和旋转角过大、摄像头)"},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="8">
         <v>-7002</v>
       </c>
-      <c r="B75" s="10" t="s">
+      <c r="B75" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C75" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="D75" t="str">
-        <f t="shared" si="1"/>
+      <c r="D75" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请使用第二代身份证件进行扫描
 /// 说明：NOT_SECOND_IDCARD
 /// &lt;/summary&gt;
+[Description("请使用第二代身份证件进行扫描")]
 请使用第二代身份证件进行扫描 = -7002,
 </v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="16">
+      <c r="E75" t="str">
+        <f t="shared" si="3"/>
+        <v>{"NOT_SECOND_IDCARD","请使用第二代身份证件进行扫描"},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9">
         <v>-7003</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="17" t="s">
         <v>394</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="18" t="s">
         <v>395</v>
       </c>
-      <c r="D76" t="str">
-        <f t="shared" si="1"/>
+      <c r="D76" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 不是身份证正面照片(请使用带证件照的一面进行扫描)
 /// 说明：NOT_FRONT_IDCARD
 /// &lt;/summary&gt;
-不是身份证正面照片(请使用带证件照的一面进行扫描) = -7003,
-</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="14">
+[Description("不是身份证正面照片(请使用带证件照的一面进行扫描)")]
+不是身份证正面照片_请使用带证件照的一面进行扫描 = -7003,
+</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="3"/>
+        <v>{"NOT_FRONT_IDCARD","不是身份证正面照片(请使用带证件照的一面进行扫描)"},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="8">
         <v>-7004</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="B77" s="15" t="s">
         <v>396</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C77" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="D77" t="str">
-        <f t="shared" si="1"/>
+      <c r="D77" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 不是身份证反面照片(请使用身份证反面进行扫描)
 /// 说明：NOT_BACK_IDCARD
 /// &lt;/summary&gt;
-不是身份证反面照片(请使用身份证反面进行扫描) = -7004,
-</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="16">
+[Description("不是身份证反面照片(请使用身份证反面进行扫描)")]
+不是身份证反面照片_请使用身份证反面进行扫描 = -7004,
+</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="3"/>
+        <v>{"NOT_BACK_IDCARD","不是身份证反面照片(请使用身份证反面进行扫描)"},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9">
         <v>-7005</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="17" t="s">
         <v>398</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="18" t="s">
         <v>399</v>
       </c>
-      <c r="D78" t="str">
-        <f t="shared" si="1"/>
+      <c r="D78" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 确保扫描证件图像清晰
 /// 说明：IDCARD_FUZZY
 /// &lt;/summary&gt;
+[Description("确保扫描证件图像清晰")]
 确保扫描证件图像清晰 = -7005,
 </v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="14">
+      <c r="E78" t="str">
+        <f t="shared" si="3"/>
+        <v>{"IDCARD_FUZZY","确保扫描证件图像清晰"},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="8">
         <v>-7006</v>
       </c>
-      <c r="B79" s="10" t="s">
+      <c r="B79" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C79" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="D79" t="str">
-        <f t="shared" si="1"/>
+      <c r="D79" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请避开灯光直射在证件表面
 /// 说明：IDCARD_LIGHT_NOT_BLANCE
 /// &lt;/summary&gt;
+[Description("请避开灯光直射在证件表面")]
 请避开灯光直射在证件表面 = -7006,
 </v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="16">
+      <c r="E79" t="str">
+        <f t="shared" si="3"/>
+        <v>{"IDCARD_LIGHT_NOT_BLANCE","请避开灯光直射在证件表面"},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9">
         <v>-9001</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="18" t="s">
         <v>403</v>
       </c>
-      <c r="D80" t="str">
-        <f t="shared" si="1"/>
+      <c r="D80" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 请求type错误，不是0，1
 /// 说明：DLOCR_WRONG_TYPE_INPUT
 /// &lt;/summary&gt;
-请求type错误，不是0，1 = -9001,
-</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14">
+[Description("请求type错误，不是0，1")]
+请求type错误_不是0_1 = -9001,
+</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="3"/>
+        <v>{"DLOCR_WRONG_TYPE_INPUT","请求type错误，不是0，1"},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="8">
         <v>-9002</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="15" t="s">
         <v>404</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C81" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D81" t="str">
-        <f t="shared" si="1"/>
+      <c r="D81" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// OCR识别失败
 /// 说明：DLOCR_RECONG_FAILED
 /// &lt;/summary&gt;
+[Description("OCR识别失败")]
 OCR识别失败 = -9002,
 </v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="16">
+      <c r="E81" t="str">
+        <f t="shared" si="3"/>
+        <v>{"DLOCR_RECONG_FAILED","OCR识别失败"},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9">
         <v>-9003</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="17" t="s">
         <v>405</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="D82" t="str">
-        <f t="shared" si="1"/>
+      <c r="D82" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// OCR识别失败
 /// 说明：GLOCR_RECONG_FAILED
 /// &lt;/summary&gt;
+[Description("OCR识别失败")]
 OCR识别失败 = -9003,
 </v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="14">
+      <c r="E82" t="str">
+        <f t="shared" si="3"/>
+        <v>{"GLOCR_RECONG_FAILED","OCR识别失败"},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="8">
         <v>-9010</v>
       </c>
-      <c r="B83" s="10" t="s">
+      <c r="B83" s="15" t="s">
         <v>406</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C83" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="D83" t="str">
-        <f t="shared" si="1"/>
+      <c r="D83" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 银行卡OCR预处理错误
 /// 说明：CREDITCARD_OCR_PREPROCESS_ERROR
 /// &lt;/summary&gt;
+[Description("银行卡OCR预处理错误")]
 银行卡OCR预处理错误 = -9010,
 </v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="16">
+      <c r="E83" t="str">
+        <f t="shared" si="3"/>
+        <v>{"CREDITCARD_OCR_PREPROCESS_ERROR","银行卡OCR预处理错误"},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9">
         <v>-9011</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="17" t="s">
         <v>408</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="18" t="s">
         <v>409</v>
       </c>
-      <c r="D84" t="str">
-        <f t="shared" si="1"/>
+      <c r="D84" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 银行卡OCR识别失败
 /// 说明：CREDITCARD_OCR_RECOG_FAILED
 /// &lt;/summary&gt;
+[Description("银行卡OCR识别失败")]
 银行卡OCR识别失败 = -9011,
 </v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="14">
+      <c r="E84" t="str">
+        <f t="shared" si="3"/>
+        <v>{"CREDITCARD_OCR_RECOG_FAILED","银行卡OCR识别失败"},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="8">
         <v>-9012</v>
       </c>
-      <c r="B85" s="10" t="s">
+      <c r="B85" s="15" t="s">
         <v>410</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="D85" t="str">
-        <f t="shared" si="1"/>
+      <c r="D85" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 银行卡图片模糊
 /// 说明：CREDITCARD_OCR_IMAGE_BLUR
 /// &lt;/summary&gt;
+[Description("银行卡图片模糊")]
 银行卡图片模糊 = -9012,
 </v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="16">
+      <c r="E85" t="str">
+        <f t="shared" si="3"/>
+        <v>{"CREDITCARD_OCR_IMAGE_BLUR","银行卡图片模糊"},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9">
         <v>-9013</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="17" t="s">
         <v>412</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="18" t="s">
         <v>413</v>
       </c>
-      <c r="D86" t="str">
-        <f t="shared" si="1"/>
+      <c r="D86" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 不是银行卡
 /// 说明：ERROR_NOT_A_CREDITCARD
 /// &lt;/summary&gt;
+[Description("不是银行卡")]
 不是银行卡 = -9013,
 </v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="14">
+      <c r="E86" t="str">
+        <f t="shared" si="3"/>
+        <v>{"ERROR_NOT_A_CREDITCARD","不是银行卡"},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8">
         <v>-9014</v>
       </c>
-      <c r="B87" s="10" t="s">
+      <c r="B87" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C87" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="D87" t="str">
-        <f t="shared" si="1"/>
+      <c r="D87" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 卡号为空或不符合规范
 /// 说明：ERROR_CREDITCARD_ILLEGAL
 /// &lt;/summary&gt;
+[Description("卡号为空或不符合规范")]
 卡号为空或不符合规范 = -9014,
 </v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="16">
+      <c r="E87" t="str">
+        <f t="shared" si="3"/>
+        <v>{"ERROR_CREDITCARD_ILLEGAL","卡号为空或不符合规范"},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9">
         <v>-9501</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="17" t="s">
         <v>416</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="18" t="s">
         <v>417</v>
       </c>
-      <c r="D88" t="str">
-        <f t="shared" si="1"/>
+      <c r="D88" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 营业执照OCR
 /// 说明：BIZLICENSE_OCR_PREPROCESS_FAILED
 /// &lt;/summary&gt;
+[Description("营业执照OCR")]
 营业执照OCR = -9501,
 </v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="14">
+      <c r="E88" t="str">
+        <f t="shared" si="3"/>
+        <v>{"BIZLICENSE_OCR_PREPROCESS_FAILED","营业执照OCR"},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8">
         <v>-9502</v>
       </c>
-      <c r="B89" s="10" t="s">
+      <c r="B89" s="15" t="s">
         <v>418</v>
       </c>
-      <c r="C89" s="15" t="s">
+      <c r="C89" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="D89" t="str">
-        <f t="shared" si="1"/>
+      <c r="D89" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 营业执照OCR
 /// 说明：BIZLICENSE_OCR_RECOG_FAILED
 /// &lt;/summary&gt;
+[Description("营业执照OCR")]
 营业执照OCR = -9502,
 </v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="16">
+      <c r="E89" t="str">
+        <f t="shared" si="3"/>
+        <v>{"BIZLICENSE_OCR_RECOG_FAILED","营业执照OCR"},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="9">
         <v>-9701</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="D90" t="str">
-        <f t="shared" si="1"/>
+      <c r="D90" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 车牌OCR预处理错误
 /// 说明：PLATE_OCR_PREPROCESS_ERROR
 /// &lt;/summary&gt;
+[Description("车牌OCR预处理错误")]
 车牌OCR预处理错误 = -9701,
 </v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="14">
+      <c r="E90" t="str">
+        <f t="shared" si="3"/>
+        <v>{"PLATE_OCR_PREPROCESS_ERROR","车牌OCR预处理错误"},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8">
         <v>-9702</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B91" s="15" t="s">
         <v>421</v>
       </c>
-      <c r="C91" s="15" t="s">
+      <c r="C91" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="D91" t="str">
-        <f t="shared" si="1"/>
+      <c r="D91" s="21" t="str">
+        <f t="shared" si="2"/>
         <v xml:space="preserve">/// &lt;summary&gt;
 /// 车牌OCR识别失败
 /// 说明：PLATE_OCR_RECOG_FAILED
 /// &lt;/summary&gt;
+[Description("车牌OCR识别失败")]
 车牌OCR识别失败 = -9702,
 </v>
+      </c>
+      <c r="E91" t="str">
+        <f t="shared" si="3"/>
+        <v>{"PLATE_OCR_RECOG_FAILED","车牌OCR识别失败"},</v>
       </c>
     </row>
   </sheetData>
